--- a/NOTES - OLSS.xlsx
+++ b/NOTES - OLSS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\BSI Senayan\OLSS\NOTES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\OLS-Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A7E9C66E-5F34-480B-832B-654388244BEC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DCE9FA7-8139-42C4-B32D-B0C630173414}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8835" firstSheet="9" activeTab="11" xr2:uid="{ADEF026E-A278-4054-8E87-70B6F23D3306}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="6" xr2:uid="{ADEF026E-A278-4054-8E87-70B6F23D3306}"/>
   </bookViews>
   <sheets>
     <sheet name="Evidence DRC for Pak Mamet" sheetId="5" r:id="rId1"/>
@@ -4837,7 +4837,7 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="6205642" cy="3403567"/>
+    <xdr:ext cx="8059275" cy="4420217"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Picture 1">
@@ -4867,7 +4867,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="190500" y="762000"/>
-          <a:ext cx="6205642" cy="3403567"/>
+          <a:ext cx="8059275" cy="4420217"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4879,9 +4879,9 @@
           </a:solidFill>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="50800" dist="88900" dir="2700000" algn="tl" rotWithShape="0">
+          <a:outerShdw blurRad="63500" algn="tl" rotWithShape="0">
             <a:prstClr val="black">
-              <a:alpha val="40000"/>
+              <a:alpha val="95000"/>
             </a:prstClr>
           </a:outerShdw>
         </a:effectLst>
@@ -4921,7 +4921,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB80BA0F-5467-4A9E-A433-7F4C4B1C5840}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4944,9 +4944,9 @@
           <a:avLst/>
         </a:prstGeom>
         <a:effectLst>
-          <a:outerShdw blurRad="190500" algn="ctr" rotWithShape="0">
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
             <a:srgbClr val="000000">
-              <a:alpha val="90000"/>
+              <a:alpha val="95000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
@@ -4972,7 +4972,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D8BE473-6F1A-4C3E-AE52-14CCEB32F8A1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5048,7 +5048,7 @@
         <xdr:cNvPr id="4" name="Rectangle 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67AD07BB-9BA9-48F5-B884-A095D5AA764F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5129,7 +5129,7 @@
         <xdr:cNvPr id="3" name="Group 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5148,7 +5148,7 @@
           <xdr:cNvPr id="2" name="Rectangle 1">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000002000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000002000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5408,7 +5408,7 @@
           <xdr:cNvPr id="5" name="Rectangle 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000005000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000005000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5668,7 +5668,7 @@
           <xdr:cNvPr id="6" name="Rectangle 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000006000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000006000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5764,7 +5764,7 @@
         <xdr:cNvPr id="4" name="Group 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5783,7 +5783,7 @@
           <xdr:cNvPr id="13" name="Picture 12">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-00000D000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-00000D000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5806,9 +5806,9 @@
             <a:avLst/>
           </a:prstGeom>
           <a:effectLst>
-            <a:outerShdw blurRad="279400" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="78000"/>
+                <a:alpha val="95000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -5819,7 +5819,7 @@
           <xdr:cNvPr id="11" name="Picture 10">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-00000B000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-00000B000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5848,9 +5848,9 @@
             </a:solidFill>
           </a:ln>
           <a:effectLst>
-            <a:outerShdw blurRad="279400" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="78000"/>
+                <a:alpha val="95000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -5887,7 +5887,7 @@
                   <a14:compatExt spid="_x0000_s14339"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000003380000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000003380000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5937,7 +5937,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5993,7 +5993,7 @@
         <xdr:cNvPr id="8" name="Group 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1100-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6012,7 +6012,7 @@
           <xdr:cNvPr id="9" name="Picture 8">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1100-000009000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-000009000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6048,7 +6048,7 @@
           <xdr:cNvPr id="10" name="Rectangle 9">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1100-00000A000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-00000A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6125,7 +6125,7 @@
         <xdr:cNvPr id="12" name="Picture 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1100-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6181,7 +6181,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6237,7 +6237,7 @@
         <xdr:cNvPr id="9" name="Group 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1300-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1400-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6256,7 +6256,7 @@
           <xdr:cNvPr id="2" name="Picture 1">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1300-000002000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1400-000002000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6292,7 +6292,7 @@
           <xdr:cNvPr id="3" name="Picture 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1300-000003000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1400-000003000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6328,7 +6328,7 @@
           <xdr:cNvPr id="5" name="Picture 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1300-000005000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1400-000005000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6364,7 +6364,7 @@
           <xdr:cNvPr id="6" name="Rectangle 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1300-000006000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1400-000006000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6416,7 +6416,7 @@
           <xdr:cNvPr id="7" name="Rectangle 6">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1300-000007000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1400-000007000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6468,7 +6468,7 @@
           <xdr:cNvPr id="8" name="Rectangle 7">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1300-000008000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1400-000008000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -7828,9 +7828,9 @@
           </a:solidFill>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="279400" algn="ctr" rotWithShape="0">
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
             <a:srgbClr val="000000">
-              <a:alpha val="78000"/>
+              <a:alpha val="95000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
@@ -7883,6 +7883,13 @@
             <a:schemeClr val="tx1"/>
           </a:solidFill>
         </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -7928,9 +7935,9 @@
           </a:solidFill>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="279400" algn="tl" rotWithShape="0">
+          <a:outerShdw blurRad="127000" algn="tl" rotWithShape="0">
             <a:srgbClr val="0000FF">
-              <a:alpha val="78000"/>
+              <a:alpha val="90000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
@@ -8147,9 +8154,9 @@
           </a:solidFill>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="279400" algn="tl" rotWithShape="0">
+          <a:outerShdw blurRad="127000" algn="tl" rotWithShape="0">
             <a:srgbClr val="0000FF">
-              <a:alpha val="78000"/>
+              <a:alpha val="90000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
@@ -8367,6 +8374,13 @@
             <a:schemeClr val="tx1"/>
           </a:solidFill>
         </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -8416,6 +8430,13 @@
             <a:schemeClr val="tx1"/>
           </a:solidFill>
         </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -8470,6 +8491,13 @@
             <a:schemeClr val="tx1"/>
           </a:solidFill>
         </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -8932,8 +8960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81499F18-C8A4-46A4-836C-40985CC4FB02}">
   <dimension ref="B2:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="AC3" sqref="AC3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8959,8 +8987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A08E8F4-8C65-4990-863C-F4A84657DBE8}">
   <dimension ref="D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AI24" sqref="AI24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8984,7 +9012,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78E96891-C0FA-46BA-A430-9C4AFDC6DC5D}">
   <dimension ref="B2:B1234"/>
   <sheetViews>
-    <sheetView topLeftCell="A228" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B254" sqref="B254"/>
     </sheetView>
   </sheetViews>
@@ -14985,8 +15013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{556D1446-171A-4270-B15B-1460FC5D0B76}">
   <dimension ref="B2:B820"/>
   <sheetViews>
-    <sheetView topLeftCell="A794" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22557,8 +22585,8 @@
   </sheetPr>
   <dimension ref="B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AQ24" sqref="AQ24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AL16" sqref="AL16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22582,7 +22610,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75635DCC-2949-42E2-815B-5F783E8B788F}">
   <dimension ref="B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -22604,7 +22634,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC689FAD-47CA-4CFA-8456-38C121029A0F}">
   <dimension ref="B2:B29"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
